--- a/ig/ch-vacd/ValueSet-ch-vacd-vaccines-snomedct-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-vaccines-snomedct-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>4.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T13:48:44+01:00</t>
+    <t>2023-06-29T17:22:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +99,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>CC-BY-SA-4.0</t>
+    <t>CC0-1.0</t>
   </si>
   <si>
     <t>Immutable</t>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>787859002</t>
+  </si>
+  <si>
+    <t>Vaccine product (medicinal product)</t>
   </si>
   <si>
     <t>871717007</t>
@@ -485,10 +491,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -640,7 +646,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -991,15 +997,23 @@
         <v>114</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>116</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-vacd/ValueSet-ch-vacd-vaccines-snomedct-vs.xlsx
+++ b/ig/ch-vacd/ValueSet-ch-vacd-vaccines-snomedct-vs.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T09:30:51+01:00</t>
+    <t>2023-12-28T11:15:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
